--- a/boardgames/seafall/captains_log/campaign_0/captain_kyle/ship_log.xlsx
+++ b/boardgames/seafall/captains_log/campaign_0/captain_kyle/ship_log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\captain_kyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/campaign_0/captain_kyle/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83DB77DD-943B-5C45-B29C-8F9418B6D3EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="6465" windowWidth="17325" windowHeight="19740"/>
+    <workbookView xWindow="-31100" yWindow="3980" windowWidth="17320" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship_log" sheetId="1" r:id="rId1"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,16 +857,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -923,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -952,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -981,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1298,6 +1299,35 @@
       </c>
       <c r="I15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
